--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pattarawadee\OneDrive\Desktop\Master\Year2\Project A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873856E8-DA89-45D5-AB16-8228F8553CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD2CAD9-ACAE-43C6-B714-08035507EB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5464D0D1-7ABB-483E-A5DA-71222AA44530}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
   <si>
     <t>RMSE</t>
   </si>
@@ -75,13 +75,34 @@
   </si>
   <si>
     <t>Joint</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>ReLU</t>
+  </si>
+  <si>
+    <t>Sigmoid</t>
+  </si>
+  <si>
+    <t>Tanh</t>
+  </si>
+  <si>
+    <t>RFL-MLP</t>
+  </si>
+  <si>
+    <t>FSO-MLP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,12 +123,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -137,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -147,9 +162,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,16 +497,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790A4F77-7F3D-4FCD-9843-85EA47FEDF6E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14:U21"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -556,29 +569,24 @@
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
+      <c r="O3" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -600,29 +608,24 @@
       <c r="G4" s="2">
         <v>0.93273599071760904</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3">
         <v>0.63999979980414101</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="3">
         <v>0.96509338855706595</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4" t="s">
+      <c r="O4" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="3">
         <v>1.06386918817186</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="3">
         <v>0.92437506015220505</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -644,29 +647,24 @@
       <c r="G5" s="2">
         <v>0.924072984734011</v>
       </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
         <v>0.44485051788323599</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="3">
         <v>0.97001896463924397</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
         <v>1.0351317142198799</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="3">
         <v>0.91447617775900103</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -688,29 +686,24 @@
       <c r="G6" s="2">
         <v>0.88437979371127895</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="3">
         <v>0.46099833516455302</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="3">
         <v>0.97786642247800803</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4">
+      <c r="O6">
         <v>3</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="3">
         <v>2.4498317685579898</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="3">
         <v>0.92604963780046001</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -732,29 +725,24 @@
       <c r="G7" s="2">
         <v>0.96718265573847895</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7">
         <v>4</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="3">
         <v>0.50116840345162394</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="3">
         <v>0.92066491485940705</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4">
+      <c r="O7">
         <v>4</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="3">
         <v>0.71396656399423697</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="3">
         <v>0.96542856912905695</v>
       </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -776,29 +764,24 @@
       <c r="G8" s="2">
         <v>0.913944011331701</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8">
         <v>5</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="3">
         <v>0.78479374921438405</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="3">
         <v>0.92890887911225495</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4">
+      <c r="O8">
         <v>5</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="3">
         <v>1.0675864198923399</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="3">
         <v>0.91302815142536797</v>
       </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -820,29 +803,24 @@
       <c r="G9" s="2">
         <v>0.93640023142134898</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9">
         <v>6</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="3">
         <v>0.80264527755706805</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="3">
         <v>0.95918116501707795</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4">
+      <c r="O9">
         <v>6</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="3">
         <v>1.0995205509997501</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="3">
         <v>0.93365945358244795</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -864,29 +842,24 @@
       <c r="G10" s="2">
         <v>0.94718563186016003</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10">
         <v>7</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="3">
         <v>0.325463858308425</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="3">
         <v>0.94339048702042505</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4">
+      <c r="O10">
         <v>7</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="3">
         <v>1.1331464539590801</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="3">
         <v>0.95410052011547197</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -908,29 +881,24 @@
       <c r="G11" s="2">
         <v>0.92353196620195199</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11">
         <v>8</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="3">
         <v>1.0997733050962799</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="3">
         <v>0.85843543297438096</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4">
+      <c r="O11">
         <v>8</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="3">
         <v>1.17068815190593</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="3">
         <v>0.90157764817056196</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -938,31 +906,36 @@
         <f>AVERAGE(B5:B11)</f>
         <v>0.62295461077827408</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <f>AVERAGE(C5:C11)</f>
+        <v>0.93813392244452865</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
         <f>AVERAGE(F5:F11)</f>
         <v>1.3208690071729567</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4">
+      <c r="G12" s="1">
+        <f>AVERAGE(G5:G11)</f>
+        <v>0.92809961071413294</v>
+      </c>
+      <c r="L12">
         <f>AVERAGE(L5:L11)</f>
         <v>0.63138477809650995</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4">
+      <c r="M12">
+        <f>AVERAGE(M5:M11)</f>
+        <v>0.93692375230011393</v>
+      </c>
+      <c r="P12">
         <f>AVERAGE(P5:P11)</f>
         <v>1.2385530890756011</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="Q12">
+        <f>AVERAGE(Q5:Q11)</f>
+        <v>0.92976002256890966</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -974,17 +947,6 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -994,33 +956,31 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="K14" s="4" t="s">
+      <c r="K14" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4" t="s">
+      <c r="O14" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" t="s">
         <v>7</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4" t="s">
+      <c r="S14" t="s">
         <v>12</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="T14" t="s">
         <v>7</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="U14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1044,34 +1004,32 @@
       <c r="G15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>-0.26302187186338399</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0.33910461930997299</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="5">
-        <v>-0.288906831398481</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>0.66989538576705199</v>
-      </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4">
-        <v>0</v>
-      </c>
-      <c r="T15" s="5">
-        <v>-0.28872339148655302</v>
-      </c>
-      <c r="U15" s="5">
-        <v>0.54374941995026704</v>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>8.7282153340672797E-2</v>
+      </c>
+      <c r="M15">
+        <v>0.34316334007284199</v>
+      </c>
+      <c r="O15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>8.9098765819696904E-2</v>
+      </c>
+      <c r="Q15">
+        <v>0.68885341239604903</v>
+      </c>
+      <c r="S15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>8.0084323063934398E-2</v>
+      </c>
+      <c r="U15">
+        <v>0.69155850609031799</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1094,34 +1052,32 @@
       <c r="G16" s="2">
         <v>0.92024220940577595</v>
       </c>
-      <c r="K16" s="4">
-        <v>3</v>
-      </c>
-      <c r="L16" s="5">
-        <v>-0.59250904292280204</v>
-      </c>
-      <c r="M16" s="5">
-        <v>0.50112327806515999</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4">
-        <v>3</v>
-      </c>
-      <c r="P16" s="5">
-        <v>-0.56615595376860595</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>0.554959074243075</v>
-      </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4">
-        <v>3</v>
-      </c>
-      <c r="T16" s="5">
-        <v>-0.65488617505645297</v>
-      </c>
-      <c r="U16" s="5">
-        <v>0.62345066736491805</v>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>-0.26302187186338399</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.33910461930997299</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>-0.288906831398481</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0.66989538576705199</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>-0.28872339148655302</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.54374941995026704</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -1144,34 +1100,32 @@
       <c r="G17" s="2">
         <v>0.91552847873506404</v>
       </c>
-      <c r="K17" s="4">
-        <v>4</v>
-      </c>
-      <c r="L17" s="5">
-        <v>0.551096645171124</v>
-      </c>
-      <c r="M17" s="5">
-        <v>0.45998423196548099</v>
-      </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4">
-        <v>4</v>
-      </c>
-      <c r="P17" s="5">
-        <v>0.57940764546675005</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>0.54801981239241604</v>
-      </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4">
-        <v>4</v>
-      </c>
-      <c r="T17" s="5">
-        <v>0.58020810584541205</v>
-      </c>
-      <c r="U17" s="5">
-        <v>0.52910472671843201</v>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
+        <v>-0.59250904292280204</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.50112327806515999</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3">
+        <v>-0.56615595376860595</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0.554959074243075</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3">
+        <v>-0.65488617505645297</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0.62345066736491805</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -1194,34 +1148,32 @@
       <c r="G18" s="2">
         <v>0.88437979371127895</v>
       </c>
-      <c r="K18" s="4">
-        <v>5</v>
-      </c>
-      <c r="L18" s="5">
-        <v>-0.13727702018764501</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0.33748214724908299</v>
-      </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4">
-        <v>5</v>
-      </c>
-      <c r="P18" s="5">
-        <v>-0.20571417725212701</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>0.42226099032750603</v>
-      </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4">
-        <v>5</v>
-      </c>
-      <c r="T18" s="5">
-        <v>-0.197979203320405</v>
-      </c>
-      <c r="U18" s="5">
-        <v>0.42731810143111898</v>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.551096645171124</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.45998423196548099</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0.57940764546675005</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0.54801981239241604</v>
+      </c>
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0.58020810584541205</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0.52910472671843201</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -1244,34 +1196,32 @@
       <c r="G19" s="2">
         <v>0.95230732726417899</v>
       </c>
-      <c r="K19" s="4">
-        <v>6</v>
-      </c>
-      <c r="L19" s="5">
-        <v>0.33511402653647399</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0.33137757602443402</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4">
-        <v>6</v>
-      </c>
-      <c r="P19" s="5">
-        <v>0.34294105625009502</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>0.45104666159309798</v>
-      </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4">
-        <v>6</v>
-      </c>
-      <c r="T19" s="5">
-        <v>0.35813502822506699</v>
-      </c>
-      <c r="U19" s="5">
-        <v>0.45184930600732798</v>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19" s="3">
+        <v>-0.13727702018764501</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.33748214724908299</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19" s="3">
+        <v>-0.20571417725212701</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0.42226099032750603</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19" s="3">
+        <v>-0.197979203320405</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0.42731810143111898</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -1294,34 +1244,32 @@
       <c r="G20" s="2">
         <v>0.91118650804791601</v>
       </c>
-      <c r="K20" s="4">
-        <v>7</v>
-      </c>
-      <c r="L20" s="5">
-        <v>0.80854999765300795</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0.57732617301754396</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4">
-        <v>7</v>
-      </c>
-      <c r="P20" s="5">
-        <v>0.81077203723948998</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>0.66087246592585802</v>
-      </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4">
-        <v>7</v>
-      </c>
-      <c r="T20" s="5">
-        <v>0.81815024813417103</v>
-      </c>
-      <c r="U20" s="5">
-        <v>0.64977255105535303</v>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.33511402653647399</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.33137757602443402</v>
+      </c>
+      <c r="O20">
+        <v>6</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0.34294105625009502</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0.45104666159309798</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0.35813502822506699</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0.45184930600732798</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -1344,34 +1292,32 @@
       <c r="G21" s="2">
         <v>0.921837051376593</v>
       </c>
-      <c r="K21" s="4">
-        <v>8</v>
-      </c>
-      <c r="L21" s="5">
-        <v>-0.23565854522399601</v>
-      </c>
-      <c r="M21" s="5">
-        <v>0.40304408180362999</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4">
-        <v>8</v>
-      </c>
-      <c r="P21" s="5">
-        <v>-0.21149701646750901</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>0.35832381455808898</v>
-      </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4">
-        <v>8</v>
-      </c>
-      <c r="T21" s="5">
-        <v>-0.19061225116147901</v>
-      </c>
-      <c r="U21" s="5">
-        <v>0.38348233565929601</v>
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.80854999765300795</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.57732617301754396</v>
+      </c>
+      <c r="O21">
+        <v>7</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.81077203723948998</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.66087246592585802</v>
+      </c>
+      <c r="S21">
+        <v>7</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0.81815024813417103</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0.64977255105535303</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -1394,7 +1340,33 @@
       <c r="G22" s="2">
         <v>0.94189272736867402</v>
       </c>
-      <c r="Q22" s="3"/>
+      <c r="K22">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
+        <v>-0.23565854522399601</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.40304408180362999</v>
+      </c>
+      <c r="O22">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
+        <v>-0.21149701646750901</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.35832381455808898</v>
+      </c>
+      <c r="S22">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
+        <v>-0.19061225116147901</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0.38348233565929601</v>
+      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1415,6 +1387,132 @@
       </c>
       <c r="G23" s="2">
         <v>0.91036329372279401</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.111805711910143</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.31979671236855001</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="3">
+        <v>2.12138965172102</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0.62070222169915901</v>
+      </c>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T27" s="4">
+        <v>3.4104133500857698</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0.24255417213868499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.25660282746975199</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.25458799950241601</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="3">
+        <v>2.63348123888104</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0.41547934217081101</v>
+      </c>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T28" s="3">
+        <v>3.0764444335227199</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0.38363823661299701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.33982937589842399</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.39253095416502798</v>
+      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1.5863944474321801</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0.78788969468164605</v>
+      </c>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T29" s="3">
+        <v>2.6562949633862898</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0.54049511155142405</v>
       </c>
     </row>
   </sheetData>
